--- a/table/DGP3_table.xlsx
+++ b/table/DGP3_table.xlsx
@@ -380,7 +380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/table/DGP3_table.xlsx
+++ b/table/DGP3_table.xlsx
@@ -425,37 +425,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9065</v>
+        <v>0.9245</v>
       </c>
       <c r="F2" t="n">
-        <v>0.913</v>
+        <v>0.9385</v>
       </c>
       <c r="G2" t="n">
-        <v>1.07724507374043</v>
+        <v>1.05918598291596</v>
       </c>
       <c r="H2" t="n">
-        <v>1.07225250471057</v>
+        <v>1.02993231685816</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16050579871966</v>
+        <v>2.02466575081153</v>
       </c>
       <c r="J2" t="n">
-        <v>2.13935618218587</v>
+        <v>1.99689776734275</v>
       </c>
       <c r="K2" t="n">
-        <v>3.80807977216105</v>
+        <v>3.82236996079459</v>
       </c>
       <c r="L2" t="n">
-        <v>3.88611854589529</v>
+        <v>3.89384294205031</v>
       </c>
     </row>
     <row r="3">
@@ -463,37 +463,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8955</v>
+        <v>0.9205</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9055</v>
+        <v>0.925</v>
       </c>
       <c r="G3" t="n">
-        <v>1.08708119638169</v>
+        <v>1.10137224747215</v>
       </c>
       <c r="H3" t="n">
-        <v>1.06990100261176</v>
+        <v>1.08996707679221</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15312909294355</v>
+        <v>2.1848799181894</v>
       </c>
       <c r="J3" t="n">
-        <v>2.12821972742738</v>
+        <v>2.15381645154375</v>
       </c>
       <c r="K3" t="n">
-        <v>3.79786831551208</v>
+        <v>3.82746311353449</v>
       </c>
       <c r="L3" t="n">
-        <v>3.90642404541595</v>
+        <v>3.9064593190698</v>
       </c>
     </row>
     <row r="4">
@@ -501,37 +501,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9075</v>
+        <v>0.913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9185</v>
+        <v>0.921</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0654981508815</v>
+        <v>1.02333199571151</v>
       </c>
       <c r="H4" t="n">
-        <v>1.08535582380257</v>
+        <v>1.0274287284927</v>
       </c>
       <c r="I4" t="n">
-        <v>2.14052198095468</v>
+        <v>2.12068987851119</v>
       </c>
       <c r="J4" t="n">
-        <v>2.11777828602462</v>
+        <v>2.09810675333484</v>
       </c>
       <c r="K4" t="n">
-        <v>3.80741867955449</v>
+        <v>3.82920290078015</v>
       </c>
       <c r="L4" t="n">
-        <v>3.92468622093752</v>
+        <v>3.9401211113033</v>
       </c>
     </row>
     <row r="5">
@@ -539,37 +539,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9145</v>
+        <v>0.9075</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9225</v>
+        <v>0.9175</v>
       </c>
       <c r="G5" t="n">
-        <v>1.08701175643336</v>
+        <v>1.1042032271167</v>
       </c>
       <c r="H5" t="n">
-        <v>1.08393584046576</v>
+        <v>1.09217727900253</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1053596127084</v>
+        <v>2.19572170280937</v>
       </c>
       <c r="J5" t="n">
-        <v>2.08735429335072</v>
+        <v>2.18123970486063</v>
       </c>
       <c r="K5" t="n">
-        <v>3.82796407964198</v>
+        <v>3.82794726645731</v>
       </c>
       <c r="L5" t="n">
-        <v>3.91962088978801</v>
+        <v>3.93690680993059</v>
       </c>
     </row>
     <row r="6">
@@ -577,37 +577,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.922</v>
+        <v>0.915</v>
       </c>
       <c r="F6" t="n">
-        <v>0.93</v>
+        <v>0.9265</v>
       </c>
       <c r="G6" t="n">
-        <v>1.07454464324754</v>
+        <v>1.07158258296081</v>
       </c>
       <c r="H6" t="n">
-        <v>1.06716293915704</v>
+        <v>1.06793737767733</v>
       </c>
       <c r="I6" t="n">
-        <v>2.11449426916393</v>
+        <v>2.15880730609098</v>
       </c>
       <c r="J6" t="n">
-        <v>2.13297055208688</v>
+        <v>2.13447932769526</v>
       </c>
       <c r="K6" t="n">
-        <v>3.80000008591656</v>
+        <v>3.81448256932837</v>
       </c>
       <c r="L6" t="n">
-        <v>3.92041344729269</v>
+        <v>3.93251479861786</v>
       </c>
     </row>
     <row r="7">
@@ -615,37 +615,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9125</v>
+        <v>0.903</v>
       </c>
       <c r="F7" t="n">
-        <v>0.926</v>
+        <v>0.9185</v>
       </c>
       <c r="G7" t="n">
-        <v>1.06618966500723</v>
+        <v>1.08880589102856</v>
       </c>
       <c r="H7" t="n">
-        <v>1.06274706373558</v>
+        <v>1.05962427017078</v>
       </c>
       <c r="I7" t="n">
-        <v>2.04610302817542</v>
+        <v>2.17988880049319</v>
       </c>
       <c r="J7" t="n">
-        <v>2.01349486353085</v>
+        <v>2.14605049743752</v>
       </c>
       <c r="K7" t="n">
-        <v>3.80129411188103</v>
+        <v>3.82029677167922</v>
       </c>
       <c r="L7" t="n">
-        <v>3.92596950556667</v>
+        <v>3.94130682046937</v>
       </c>
     </row>
     <row r="8">
@@ -653,37 +653,37 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9075</v>
+        <v>0.9175</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9175</v>
+        <v>0.933</v>
       </c>
       <c r="G8" t="n">
-        <v>1.04854457908915</v>
+        <v>1.03148351977077</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04791801971442</v>
+        <v>1.04331931428315</v>
       </c>
       <c r="I8" t="n">
-        <v>2.10208121027478</v>
+        <v>2.0637558295027</v>
       </c>
       <c r="J8" t="n">
-        <v>2.09410100558259</v>
+        <v>2.03272331731975</v>
       </c>
       <c r="K8" t="n">
-        <v>3.79323942673562</v>
+        <v>3.82664772337675</v>
       </c>
       <c r="L8" t="n">
-        <v>3.91521009805833</v>
+        <v>3.93243965561218</v>
       </c>
     </row>
     <row r="9">
@@ -691,37 +691,37 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9085</v>
+        <v>0.9065</v>
       </c>
       <c r="F9" t="n">
-        <v>0.927</v>
+        <v>0.9135</v>
       </c>
       <c r="G9" t="n">
-        <v>1.08622877020257</v>
+        <v>1.0490631797946</v>
       </c>
       <c r="H9" t="n">
-        <v>1.08157764165531</v>
+        <v>1.03866501959186</v>
       </c>
       <c r="I9" t="n">
-        <v>2.10980660324862</v>
+        <v>2.13486731166589</v>
       </c>
       <c r="J9" t="n">
-        <v>2.08979721902341</v>
+        <v>2.10524914286878</v>
       </c>
       <c r="K9" t="n">
-        <v>3.79168462747169</v>
+        <v>3.81619751986391</v>
       </c>
       <c r="L9" t="n">
-        <v>3.9376897372345</v>
+        <v>3.93708631250816</v>
       </c>
     </row>
     <row r="10">
@@ -729,37 +729,37 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9245</v>
+        <v>0.91</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9265</v>
+        <v>0.9215</v>
       </c>
       <c r="G10" t="n">
-        <v>1.07153831257526</v>
+        <v>1.09424084185943</v>
       </c>
       <c r="H10" t="n">
-        <v>1.08450940593236</v>
+        <v>1.08017412198006</v>
       </c>
       <c r="I10" t="n">
-        <v>2.13323917282535</v>
+        <v>2.17209382665468</v>
       </c>
       <c r="J10" t="n">
-        <v>2.12969336848439</v>
+        <v>2.14075958085957</v>
       </c>
       <c r="K10" t="n">
-        <v>3.80376316040926</v>
+        <v>3.83283660979072</v>
       </c>
       <c r="L10" t="n">
-        <v>3.93122753971301</v>
+        <v>3.94094552204403</v>
       </c>
     </row>
     <row r="11">
@@ -767,37 +767,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9255</v>
+        <v>0.918</v>
       </c>
       <c r="F11" t="n">
         <v>0.929</v>
       </c>
       <c r="G11" t="n">
-        <v>1.06495313849747</v>
+        <v>1.07645738981092</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0637399656263</v>
+        <v>1.05774873961777</v>
       </c>
       <c r="I11" t="n">
-        <v>2.14444658506894</v>
+        <v>2.0755451738369</v>
       </c>
       <c r="J11" t="n">
-        <v>2.10475800461919</v>
+        <v>2.05444591420582</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8319809696632</v>
+        <v>3.82711392462875</v>
       </c>
       <c r="L11" t="n">
-        <v>3.92372582179529</v>
+        <v>3.93380671692582</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.924</v>
+        <v>0.9165</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9295</v>
+        <v>0.928</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04909192910378</v>
+        <v>1.03593159407335</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0456577576451</v>
+        <v>1.02215886148429</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05328328429126</v>
+        <v>2.06605582594513</v>
       </c>
       <c r="J12" t="n">
-        <v>2.06351727025926</v>
+        <v>2.0275086417933</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85129343009238</v>
+        <v>3.84547918546054</v>
       </c>
       <c r="L12" t="n">
-        <v>3.91344454992062</v>
+        <v>3.9279788654535</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>70</v>
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.911</v>
+        <v>0.937</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9235</v>
+        <v>0.9375</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0534331025286</v>
+        <v>1.03954194715684</v>
       </c>
       <c r="H13" t="n">
-        <v>1.06993239839386</v>
+        <v>1.0236968413811</v>
       </c>
       <c r="I13" t="n">
-        <v>2.17052380971776</v>
+        <v>2.00910223488869</v>
       </c>
       <c r="J13" t="n">
-        <v>2.12976158296005</v>
+        <v>1.96946281978057</v>
       </c>
       <c r="K13" t="n">
-        <v>3.84769766512934</v>
+        <v>3.83205866539853</v>
       </c>
       <c r="L13" t="n">
-        <v>3.91864268704009</v>
+        <v>3.90887371242399</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>70</v>
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.923</v>
+        <v>0.919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.93</v>
+        <v>0.922</v>
       </c>
       <c r="G14" t="n">
-        <v>1.07850760994136</v>
+        <v>1.1223008837861</v>
       </c>
       <c r="H14" t="n">
-        <v>1.07290645776369</v>
+        <v>1.10307592819019</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1080129316827</v>
+        <v>2.17027208018543</v>
       </c>
       <c r="J14" t="n">
-        <v>2.08542630507164</v>
+        <v>2.13795846169959</v>
       </c>
       <c r="K14" t="n">
-        <v>3.86302929753956</v>
+        <v>3.84290685162181</v>
       </c>
       <c r="L14" t="n">
-        <v>3.92640355832238</v>
+        <v>3.91274293488337</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>70</v>
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9235</v>
+        <v>0.916</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9295</v>
+        <v>0.922</v>
       </c>
       <c r="G15" t="n">
-        <v>1.05360729374975</v>
+        <v>1.07979864300761</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04017948376737</v>
+        <v>1.04312712332871</v>
       </c>
       <c r="I15" t="n">
-        <v>2.07146425152469</v>
+        <v>2.14634179899549</v>
       </c>
       <c r="J15" t="n">
-        <v>2.05256790409392</v>
+        <v>2.10638971617871</v>
       </c>
       <c r="K15" t="n">
-        <v>3.86663011824248</v>
+        <v>3.82981423111106</v>
       </c>
       <c r="L15" t="n">
-        <v>3.93666468909963</v>
+        <v>3.92195372344046</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>70</v>
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9225</v>
+        <v>0.915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9285</v>
+        <v>0.9245</v>
       </c>
       <c r="G16" t="n">
-        <v>1.07221308776034</v>
+        <v>1.03958130301683</v>
       </c>
       <c r="H16" t="n">
-        <v>1.05901936143055</v>
+        <v>1.03721353130934</v>
       </c>
       <c r="I16" t="n">
-        <v>2.14057394182819</v>
+        <v>2.10645085062209</v>
       </c>
       <c r="J16" t="n">
-        <v>2.11567921278158</v>
+        <v>2.06602148039281</v>
       </c>
       <c r="K16" t="n">
-        <v>3.87054932396261</v>
+        <v>3.81571976498569</v>
       </c>
       <c r="L16" t="n">
-        <v>3.93208813419953</v>
+        <v>3.93943063256071</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.914</v>
+        <v>0.926</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9235</v>
+        <v>0.937</v>
       </c>
       <c r="G17" t="n">
-        <v>1.10751336004059</v>
+        <v>1.08296345368489</v>
       </c>
       <c r="H17" t="n">
-        <v>1.09184837756449</v>
+        <v>1.09032208216701</v>
       </c>
       <c r="I17" t="n">
-        <v>2.19910080110906</v>
+        <v>2.09848843964015</v>
       </c>
       <c r="J17" t="n">
-        <v>2.17741400440392</v>
+        <v>2.05914869608159</v>
       </c>
       <c r="K17" t="n">
-        <v>3.86669966933059</v>
+        <v>3.84632945506789</v>
       </c>
       <c r="L17" t="n">
-        <v>3.94967154352456</v>
+        <v>3.92472642477796</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>70</v>
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.906</v>
+        <v>0.9095</v>
       </c>
       <c r="F18" t="n">
-        <v>0.917</v>
+        <v>0.9165</v>
       </c>
       <c r="G18" t="n">
-        <v>1.07674735718742</v>
+        <v>1.11969891115798</v>
       </c>
       <c r="H18" t="n">
-        <v>1.08891625317137</v>
+        <v>1.09271231195709</v>
       </c>
       <c r="I18" t="n">
-        <v>2.12553073662352</v>
+        <v>2.18773042578168</v>
       </c>
       <c r="J18" t="n">
-        <v>2.11398396283022</v>
+        <v>2.15382624191173</v>
       </c>
       <c r="K18" t="n">
-        <v>3.84991460316374</v>
+        <v>3.84908083151487</v>
       </c>
       <c r="L18" t="n">
-        <v>3.93169274306763</v>
+        <v>3.93722297088806</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>70</v>
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9305</v>
+        <v>0.9185</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9375</v>
+        <v>0.931</v>
       </c>
       <c r="G19" t="n">
-        <v>1.06877311270153</v>
+        <v>1.08260482050146</v>
       </c>
       <c r="H19" t="n">
-        <v>1.03724702571242</v>
+        <v>1.06550242368115</v>
       </c>
       <c r="I19" t="n">
-        <v>2.07831431201295</v>
+        <v>2.22344997190112</v>
       </c>
       <c r="J19" t="n">
-        <v>2.04958839273359</v>
+        <v>2.14887234488644</v>
       </c>
       <c r="K19" t="n">
-        <v>3.87186946563414</v>
+        <v>3.84513649955865</v>
       </c>
       <c r="L19" t="n">
-        <v>3.96887769286486</v>
+        <v>3.95612663275998</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>70</v>
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.917</v>
+        <v>0.919</v>
       </c>
       <c r="F20" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
       <c r="G20" t="n">
-        <v>1.09541506806625</v>
+        <v>1.09734000282403</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09116036690366</v>
+        <v>1.08234081664439</v>
       </c>
       <c r="I20" t="n">
-        <v>2.11005184685235</v>
+        <v>2.14979999967422</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08198345746594</v>
+        <v>2.11008044462098</v>
       </c>
       <c r="K20" t="n">
-        <v>3.86046486574853</v>
+        <v>3.85881679898349</v>
       </c>
       <c r="L20" t="n">
-        <v>3.9646458556382</v>
+        <v>3.93593482780127</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>70</v>
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.919</v>
+        <v>0.921</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9215</v>
+        <v>0.9275</v>
       </c>
       <c r="G21" t="n">
-        <v>1.08751111431353</v>
+        <v>1.06084928280338</v>
       </c>
       <c r="H21" t="n">
-        <v>1.07816637873518</v>
+        <v>1.0504507296104</v>
       </c>
       <c r="I21" t="n">
-        <v>2.13891785351942</v>
+        <v>2.09051278773562</v>
       </c>
       <c r="J21" t="n">
-        <v>2.11076443597137</v>
+        <v>2.07675080793946</v>
       </c>
       <c r="K21" t="n">
-        <v>3.84566311938082</v>
+        <v>3.83296054250911</v>
       </c>
       <c r="L21" t="n">
-        <v>3.93909788036056</v>
+        <v>3.93680989199251</v>
       </c>
     </row>
     <row r="22">
@@ -1185,37 +1185,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.903</v>
+        <v>0.918</v>
       </c>
       <c r="F22" t="n">
-        <v>0.899</v>
+        <v>0.9215</v>
       </c>
       <c r="G22" t="n">
-        <v>1.07636825049419</v>
+        <v>1.08244283079387</v>
       </c>
       <c r="H22" t="n">
-        <v>1.07455389205087</v>
+        <v>1.06105304903695</v>
       </c>
       <c r="I22" t="n">
-        <v>2.13517826942737</v>
+        <v>2.13060646528922</v>
       </c>
       <c r="J22" t="n">
-        <v>2.13641616447973</v>
+        <v>2.11784382500461</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85401338986797</v>
+        <v>3.84568498312861</v>
       </c>
       <c r="L22" t="n">
-        <v>3.89266508048807</v>
+        <v>3.89140843397107</v>
       </c>
     </row>
     <row r="23">
@@ -1223,37 +1223,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.916</v>
+        <v>0.919</v>
       </c>
       <c r="F23" t="n">
-        <v>0.923</v>
+        <v>0.929</v>
       </c>
       <c r="G23" t="n">
-        <v>1.13410451702552</v>
+        <v>1.06308342376048</v>
       </c>
       <c r="H23" t="n">
-        <v>1.14156750883811</v>
+        <v>1.06325129612254</v>
       </c>
       <c r="I23" t="n">
-        <v>2.21128059504652</v>
+        <v>2.06196247763083</v>
       </c>
       <c r="J23" t="n">
-        <v>2.19422796158566</v>
+        <v>2.04348297958895</v>
       </c>
       <c r="K23" t="n">
-        <v>3.86454029081578</v>
+        <v>3.82443186083418</v>
       </c>
       <c r="L23" t="n">
-        <v>3.93603132470591</v>
+        <v>3.92727999130578</v>
       </c>
     </row>
     <row r="24">
@@ -1261,37 +1261,37 @@
         <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.915</v>
+        <v>0.917</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9205</v>
+        <v>0.927</v>
       </c>
       <c r="G24" t="n">
-        <v>1.05766292523061</v>
+        <v>1.08899538437968</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04719558319708</v>
+        <v>1.09544986155008</v>
       </c>
       <c r="I24" t="n">
-        <v>2.14663895341478</v>
+        <v>2.15019527157915</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1280053111807</v>
+        <v>2.12874602884012</v>
       </c>
       <c r="K24" t="n">
-        <v>3.86213913384121</v>
+        <v>3.82080041132229</v>
       </c>
       <c r="L24" t="n">
-        <v>3.94211955015421</v>
+        <v>3.91209414037591</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1299,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9155</v>
+        <v>0.906</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9245</v>
+        <v>0.9215</v>
       </c>
       <c r="G25" t="n">
-        <v>1.10679780559028</v>
+        <v>1.06116967958011</v>
       </c>
       <c r="H25" t="n">
-        <v>1.10567131973388</v>
+        <v>1.07285143282309</v>
       </c>
       <c r="I25" t="n">
-        <v>2.09631714992725</v>
+        <v>2.09007728701224</v>
       </c>
       <c r="J25" t="n">
-        <v>2.08027420176439</v>
+        <v>2.06869154066657</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85042788095164</v>
+        <v>3.83857558976818</v>
       </c>
       <c r="L25" t="n">
-        <v>3.94052524924179</v>
+        <v>3.93623180381095</v>
       </c>
     </row>
     <row r="26">
@@ -1337,37 +1337,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9055</v>
+        <v>0.9195</v>
       </c>
       <c r="F26" t="n">
-        <v>0.907</v>
+        <v>0.9275</v>
       </c>
       <c r="G26" t="n">
-        <v>1.06122736988619</v>
+        <v>1.13715424983732</v>
       </c>
       <c r="H26" t="n">
-        <v>1.06407058885679</v>
+        <v>1.11818758378129</v>
       </c>
       <c r="I26" t="n">
-        <v>2.18207685473901</v>
+        <v>2.20361913956531</v>
       </c>
       <c r="J26" t="n">
-        <v>2.16136401974852</v>
+        <v>2.17075935896343</v>
       </c>
       <c r="K26" t="n">
-        <v>3.86074796018043</v>
+        <v>3.83415088451083</v>
       </c>
       <c r="L26" t="n">
-        <v>3.9385002953415</v>
+        <v>3.92805507749583</v>
       </c>
     </row>
     <row r="27">
@@ -1375,37 +1375,37 @@
         <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="F27" t="n">
-        <v>0.919</v>
+        <v>0.9185</v>
       </c>
       <c r="G27" t="n">
-        <v>1.07581322275906</v>
+        <v>1.07805086071989</v>
       </c>
       <c r="H27" t="n">
-        <v>1.06609184013049</v>
+        <v>1.09620134051368</v>
       </c>
       <c r="I27" t="n">
-        <v>2.10959362890452</v>
+        <v>2.16780532029028</v>
       </c>
       <c r="J27" t="n">
-        <v>2.09744584834143</v>
+        <v>2.14623116690947</v>
       </c>
       <c r="K27" t="n">
-        <v>3.84475126734115</v>
+        <v>3.81604069173822</v>
       </c>
       <c r="L27" t="n">
-        <v>3.93821942781282</v>
+        <v>3.93262854712687</v>
       </c>
     </row>
     <row r="28">
@@ -1413,37 +1413,37 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.909</v>
+        <v>0.9085</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9115</v>
+        <v>0.9215</v>
       </c>
       <c r="G28" t="n">
-        <v>1.09092713617322</v>
+        <v>1.06312832278495</v>
       </c>
       <c r="H28" t="n">
-        <v>1.09351036163571</v>
+        <v>1.05311466114926</v>
       </c>
       <c r="I28" t="n">
-        <v>2.21358354431203</v>
+        <v>2.13169973368471</v>
       </c>
       <c r="J28" t="n">
-        <v>2.19178516493151</v>
+        <v>2.0937371852089</v>
       </c>
       <c r="K28" t="n">
-        <v>3.86300020208039</v>
+        <v>3.83064754865423</v>
       </c>
       <c r="L28" t="n">
-        <v>3.94875791568214</v>
+        <v>3.91719131570487</v>
       </c>
     </row>
     <row r="29">
@@ -1451,37 +1451,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.912</v>
+        <v>0.9035</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9175</v>
+        <v>0.916</v>
       </c>
       <c r="G29" t="n">
-        <v>1.12325613153302</v>
+        <v>1.06715961673483</v>
       </c>
       <c r="H29" t="n">
-        <v>1.10269300030977</v>
+        <v>1.07560443929165</v>
       </c>
       <c r="I29" t="n">
-        <v>2.22481914447994</v>
+        <v>2.16747910405408</v>
       </c>
       <c r="J29" t="n">
-        <v>2.21243956570863</v>
+        <v>2.16617617503069</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85259823105928</v>
+        <v>3.82013116102627</v>
       </c>
       <c r="L29" t="n">
-        <v>3.95148081253334</v>
+        <v>3.92047776587622</v>
       </c>
     </row>
     <row r="30">
@@ -1489,37 +1489,37 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9295</v>
+        <v>0.9305</v>
       </c>
       <c r="G30" t="n">
-        <v>1.06183523424148</v>
+        <v>1.05931011530081</v>
       </c>
       <c r="H30" t="n">
-        <v>1.07906891101709</v>
+        <v>1.07907550677041</v>
       </c>
       <c r="I30" t="n">
-        <v>2.11434036523037</v>
+        <v>2.04522664506522</v>
       </c>
       <c r="J30" t="n">
-        <v>2.11057826861785</v>
+        <v>2.04086329063506</v>
       </c>
       <c r="K30" t="n">
-        <v>3.84708473364384</v>
+        <v>3.82226412405299</v>
       </c>
       <c r="L30" t="n">
-        <v>3.95124176174965</v>
+        <v>3.95228861020058</v>
       </c>
     </row>
     <row r="31">
@@ -1527,37 +1527,37 @@
         <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9135</v>
+        <v>0.8995</v>
       </c>
       <c r="F31" t="n">
-        <v>0.927</v>
+        <v>0.907</v>
       </c>
       <c r="G31" t="n">
-        <v>1.08014615131685</v>
+        <v>1.1435327169524</v>
       </c>
       <c r="H31" t="n">
-        <v>1.07355967651059</v>
+        <v>1.14554948344153</v>
       </c>
       <c r="I31" t="n">
-        <v>2.10662367564021</v>
+        <v>2.31511620550871</v>
       </c>
       <c r="J31" t="n">
-        <v>2.09885513071312</v>
+        <v>2.29767114472023</v>
       </c>
       <c r="K31" t="n">
-        <v>3.84511424643736</v>
+        <v>3.8322776770161</v>
       </c>
       <c r="L31" t="n">
-        <v>3.94597805248569</v>
+        <v>3.92373872701101</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C32" t="n">
         <v>70</v>
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.929</v>
+        <v>0.9195</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9345</v>
+        <v>0.925</v>
       </c>
       <c r="G32" t="n">
-        <v>1.03741553223926</v>
+        <v>1.06513035179691</v>
       </c>
       <c r="H32" t="n">
-        <v>1.05537715976378</v>
+        <v>1.05206012036471</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0693832434634</v>
+        <v>2.16404001851474</v>
       </c>
       <c r="J32" t="n">
-        <v>2.05096719641516</v>
+        <v>2.1578548544363</v>
       </c>
       <c r="K32" t="n">
-        <v>3.89790090317122</v>
+        <v>3.87104915606127</v>
       </c>
       <c r="L32" t="n">
-        <v>3.93337403082246</v>
+        <v>3.91074576270068</v>
       </c>
     </row>
     <row r="33">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
         <v>70</v>
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9225</v>
+        <v>0.9305</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9235</v>
+        <v>0.938</v>
       </c>
       <c r="G33" t="n">
-        <v>1.06824660549351</v>
+        <v>1.05885567812918</v>
       </c>
       <c r="H33" t="n">
-        <v>1.05812748338162</v>
+        <v>1.06296556732424</v>
       </c>
       <c r="I33" t="n">
-        <v>2.11806401244408</v>
+        <v>2.10378444831606</v>
       </c>
       <c r="J33" t="n">
-        <v>2.10098222869529</v>
+        <v>2.06673251942877</v>
       </c>
       <c r="K33" t="n">
-        <v>3.90226745744499</v>
+        <v>3.86530890451505</v>
       </c>
       <c r="L33" t="n">
-        <v>3.95916318691708</v>
+        <v>3.92946890909219</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
         <v>70</v>
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.913</v>
+        <v>0.9285</v>
       </c>
       <c r="F34" t="n">
-        <v>0.925</v>
+        <v>0.9405</v>
       </c>
       <c r="G34" t="n">
-        <v>1.08897326214186</v>
+        <v>1.05245614475897</v>
       </c>
       <c r="H34" t="n">
-        <v>1.09302600025157</v>
+        <v>1.06541932371584</v>
       </c>
       <c r="I34" t="n">
-        <v>2.14364509755677</v>
+        <v>1.97949422055972</v>
       </c>
       <c r="J34" t="n">
-        <v>2.11285447921794</v>
+        <v>1.95844478348802</v>
       </c>
       <c r="K34" t="n">
-        <v>3.88629350053231</v>
+        <v>3.88084507948439</v>
       </c>
       <c r="L34" t="n">
-        <v>3.94781879319644</v>
+        <v>3.93998917164781</v>
       </c>
     </row>
     <row r="35">
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
         <v>70</v>
@@ -1691,25 +1691,25 @@
         <v>0.9275</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9395</v>
+        <v>0.928</v>
       </c>
       <c r="G35" t="n">
-        <v>1.05320719516011</v>
+        <v>1.05427779437272</v>
       </c>
       <c r="H35" t="n">
-        <v>1.04657292376505</v>
+        <v>1.04377168049847</v>
       </c>
       <c r="I35" t="n">
-        <v>2.09378914023716</v>
+        <v>2.05977431780508</v>
       </c>
       <c r="J35" t="n">
-        <v>2.09184540576159</v>
+        <v>2.00555917444304</v>
       </c>
       <c r="K35" t="n">
-        <v>3.89991363743055</v>
+        <v>3.87004797174922</v>
       </c>
       <c r="L35" t="n">
-        <v>3.96015965893662</v>
+        <v>3.94976063636693</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C36" t="n">
         <v>70</v>
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.934</v>
+        <v>0.909</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9385</v>
+        <v>0.915</v>
       </c>
       <c r="G36" t="n">
-        <v>1.07771725221748</v>
+        <v>1.05589616611116</v>
       </c>
       <c r="H36" t="n">
-        <v>1.07270696575503</v>
+        <v>1.06293680750292</v>
       </c>
       <c r="I36" t="n">
-        <v>2.01845326132171</v>
+        <v>2.14691315144062</v>
       </c>
       <c r="J36" t="n">
-        <v>2.00222113060117</v>
+        <v>2.11836993503174</v>
       </c>
       <c r="K36" t="n">
-        <v>3.8925502956343</v>
+        <v>3.86818826919269</v>
       </c>
       <c r="L36" t="n">
-        <v>3.95895027499847</v>
+        <v>3.93378920912602</v>
       </c>
     </row>
     <row r="37">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C37" t="n">
         <v>70</v>
@@ -1764,28 +1764,28 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.919</v>
+        <v>0.918</v>
       </c>
       <c r="F37" t="n">
-        <v>0.926</v>
+        <v>0.928</v>
       </c>
       <c r="G37" t="n">
-        <v>1.08445944901999</v>
+        <v>1.02964721059091</v>
       </c>
       <c r="H37" t="n">
-        <v>1.09064366803374</v>
+        <v>1.00782021899734</v>
       </c>
       <c r="I37" t="n">
-        <v>2.15809464481255</v>
+        <v>2.0682277114846</v>
       </c>
       <c r="J37" t="n">
-        <v>2.14008112148413</v>
+        <v>2.03486521627705</v>
       </c>
       <c r="K37" t="n">
-        <v>3.89043243476799</v>
+        <v>3.85772796832307</v>
       </c>
       <c r="L37" t="n">
-        <v>3.95951785002361</v>
+        <v>3.94278803919121</v>
       </c>
     </row>
     <row r="38">
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C38" t="n">
         <v>70</v>
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.927</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.9345</v>
-      </c>
       <c r="G38" t="n">
-        <v>1.0400876227781</v>
+        <v>1.01732063171941</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04671775288841</v>
+        <v>1.04066188734496</v>
       </c>
       <c r="I38" t="n">
-        <v>2.0554497793468</v>
+        <v>2.04508073363222</v>
       </c>
       <c r="J38" t="n">
-        <v>2.05536572687835</v>
+        <v>2.01945435806019</v>
       </c>
       <c r="K38" t="n">
-        <v>3.88644862887643</v>
+        <v>3.88093637051318</v>
       </c>
       <c r="L38" t="n">
-        <v>3.95008461543147</v>
+        <v>3.94462657647181</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
         <v>70</v>
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.922</v>
+        <v>0.9225</v>
       </c>
       <c r="F39" t="n">
-        <v>0.93</v>
+        <v>0.9225</v>
       </c>
       <c r="G39" t="n">
-        <v>1.06624897411111</v>
+        <v>1.06146166162247</v>
       </c>
       <c r="H39" t="n">
-        <v>1.04206436895362</v>
+        <v>1.05449333516927</v>
       </c>
       <c r="I39" t="n">
-        <v>2.05767983228561</v>
+        <v>2.08445230518205</v>
       </c>
       <c r="J39" t="n">
-        <v>2.01980495980141</v>
+        <v>2.05647679029811</v>
       </c>
       <c r="K39" t="n">
-        <v>3.91286137731984</v>
+        <v>3.87595859080491</v>
       </c>
       <c r="L39" t="n">
-        <v>3.96160406351483</v>
+        <v>3.94765223017155</v>
       </c>
     </row>
     <row r="40">
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
         <v>70</v>
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.917</v>
+        <v>0.919</v>
       </c>
       <c r="F40" t="n">
-        <v>0.918</v>
+        <v>0.9255</v>
       </c>
       <c r="G40" t="n">
-        <v>1.03681616819038</v>
+        <v>1.12771406322745</v>
       </c>
       <c r="H40" t="n">
-        <v>1.01949397352533</v>
+        <v>1.10558268710335</v>
       </c>
       <c r="I40" t="n">
-        <v>2.1549825299026</v>
+        <v>2.18119974053905</v>
       </c>
       <c r="J40" t="n">
-        <v>2.14188245725923</v>
+        <v>2.15206923734281</v>
       </c>
       <c r="K40" t="n">
-        <v>3.90159479611461</v>
+        <v>3.87082750935525</v>
       </c>
       <c r="L40" t="n">
-        <v>3.98030085282583</v>
+        <v>3.94830482288491</v>
       </c>
     </row>
     <row r="41">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
         <v>70</v>
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.924</v>
+        <v>0.92</v>
       </c>
       <c r="F41" t="n">
-        <v>0.933</v>
+        <v>0.9305</v>
       </c>
       <c r="G41" t="n">
-        <v>1.05088094727337</v>
+        <v>1.09110016710978</v>
       </c>
       <c r="H41" t="n">
-        <v>1.05124937471561</v>
+        <v>1.07734795549774</v>
       </c>
       <c r="I41" t="n">
-        <v>2.02391665829868</v>
+        <v>2.11750107564497</v>
       </c>
       <c r="J41" t="n">
-        <v>2.00386252178466</v>
+        <v>2.09255700237486</v>
       </c>
       <c r="K41" t="n">
-        <v>3.91759840553478</v>
+        <v>3.87486478715802</v>
       </c>
       <c r="L41" t="n">
-        <v>3.97105069041981</v>
+        <v>3.93909454106154</v>
       </c>
     </row>
   </sheetData>
